--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from service-category" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Service category" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+    <t>http://terminology.hl7.org/CodeSystem/service-category</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:44:07+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -319,58 +322,60 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -392,58 +397,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:46:45+02:00</t>
+    <t>2023-11-08T00:53:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T00:53:28+01:00</t>
+    <t>2023-11-08T01:12:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T01:12:56+01:00</t>
+    <t>2023-11-08T15:53:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -54,13 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>false</t>
+    <t>true</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T15:53:02+01:00</t>
+    <t>2023-11-19T21:48:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-19T21:48:09+01:00</t>
+    <t>2023-11-27T12:35:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T12:35:55+01:00</t>
+    <t>2023-12-04T09:08:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T09:08:22+01:00</t>
+    <t>2023-12-07T13:24:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T13:24:46+01:00</t>
+    <t>2023-12-07T15:19:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:19:19+01:00</t>
+    <t>2023-12-08T09:35:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T09:35:25+01:00</t>
+    <t>2023-12-08T12:58:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T12:58:44+01:00</t>
+    <t>2023-12-08T15:31:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T15:31:30+01:00</t>
+    <t>2023-12-13T23:52:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T23:52:19+01:00</t>
+    <t>2023-12-15T20:08:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T20:08:30+01:00</t>
+    <t>2023-12-19T12:28:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T12:28:54+01:00</t>
+    <t>2023-12-21T10:30:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T10:30:52+01:00</t>
+    <t>2024-01-15T07:10:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T07:10:14+01:00</t>
+    <t>2024-01-16T01:49:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:49:14+01:00</t>
+    <t>2024-02-09T14:16:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T14:16:42+01:00</t>
+    <t>2024-06-01T10:49:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Service category" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-01T10:49:22+02:00</t>
+    <t>2025-01-31T12:01:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Example Publisher (http://example.org/example-publisher)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -118,9 +124,6 @@
   </si>
   <si>
     <t>Community Health Care</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -260,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -362,20 +365,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -397,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T12:01:35+01:00</t>
+    <t>2025-01-31T15:15:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:15:59+01:00</t>
+    <t>2025-01-31T16:07:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:07:19+01:00</t>
+    <t>2025-02-01T23:53:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:53:20+01:00</t>
+    <t>2025-02-15T12:00:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
+++ b/ValueSet-hn-appointment-ServiceCategory-code-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-15T12:00:41+01:00</t>
+    <t>2025-06-05T14:31:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
